--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:05:31+00:00</t>
+    <t>2025-06-19T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -750,7 +750,7 @@
 </t>
   </si>
   <si>
-    <t>Slices for SCT coding of Observation.code</t>
+    <t>Slices for SCT coding of Observation.code for CFS score</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -762,25 +762,25 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode</t>
-  </si>
-  <si>
-    <t>NEWS2scoreSCTCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.id</t>
+    <t>Observation.code.coding:CFSscoreSCTCode</t>
+  </si>
+  <si>
+    <t>CFSscoreSCTCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:CFSscoreSCTCode.id</t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.extension</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.extension</t>
   </si>
   <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.system</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.system</t>
   </si>
   <si>
     <t>Observation.code.coding.system</t>
@@ -810,7 +810,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.version</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.version</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -834,7 +834,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.code</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.code</t>
   </si>
   <si>
     <t>Observation.code.coding.code</t>
@@ -861,7 +861,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.display</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.display</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
@@ -885,7 +885,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.code.coding:NEWS2scoreSCTCode.userSelected</t>
+    <t>Observation.code.coding:CFSscoreSCTCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding.userSelected</t>
@@ -2282,9 +2282,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.23046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2310,7 +2310,7 @@
     <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="44.6796875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:58:19+00:00</t>
+    <t>2025-06-20T06:32:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:32:13+00:00</t>
+    <t>2025-06-20T06:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:38:10+00:00</t>
+    <t>2025-06-20T10:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1348,7 +1348,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|Patient|CareTeam|RelatedPerson|Organization)
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:52:57+00:00</t>
+    <t>2025-06-20T10:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -948,6 +948,411 @@
   </si>
   <si>
     <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>Reference to the patient that is subject to the encounter, identified by Norwegian national id number (Fødselsnummer or DNR).
+A link to a resource representing the person or the group to whom the medication will be given.
+VKP always references a Patient Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the subject.identifier element.
+The Name of the patient should be given in the subject.display element.
+Example:
+~~~~
+"subject":{
+   "identifier":{
+      "system":"urn:oid:2.16.578.1.12.4.1.4.1",
+      "value":"05073500186"
+     },
+     "display":"Ærlend Sørgård"
+}
+~~~~</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Observation.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|Patient|CareTeam|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
   </si>
   <si>
     <t>Reference to the practitioner that performed the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
@@ -966,398 +1371,6 @@
 ~~~~</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.subject.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Observation.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|Patient|CareTeam|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -1383,6 +1396,9 @@
   </si>
   <si>
     <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-reference-types.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier</t>
@@ -2307,7 +2323,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.05859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="44.6796875" customWidth="true" bestFit="true"/>
@@ -8488,7 +8504,7 @@
         <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
@@ -8532,13 +8548,11 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>322</v>
+        <v>437</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8591,10 +8605,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8711,10 +8725,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8829,10 +8843,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8949,10 +8963,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9071,10 +9085,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9193,10 +9207,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9260,7 +9274,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9313,10 +9327,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9433,10 +9447,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9551,10 +9565,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9671,10 +9685,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9791,10 +9805,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9817,19 +9831,19 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9878,7 +9892,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9887,7 +9901,7 @@
         <v>94</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>106</v>
@@ -9896,27 +9910,27 @@
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9942,16 +9956,16 @@
         <v>192</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9979,10 +9993,10 @@
         <v>320</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10000,7 +10014,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10009,7 +10023,7 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10024,7 +10038,7 @@
         <v>137</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10035,14 +10049,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10064,16 +10078,16 @@
         <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10101,10 +10115,10 @@
         <v>320</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -10122,7 +10136,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10140,27 +10154,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10183,19 +10197,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10244,7 +10258,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10265,10 +10279,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10279,10 +10293,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10308,13 +10322,13 @@
         <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10343,10 +10357,10 @@
         <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10364,7 +10378,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10382,27 +10396,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10428,16 +10442,16 @@
         <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10465,10 +10479,10 @@
         <v>207</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10486,7 +10500,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10507,10 +10521,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10521,10 +10535,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10547,16 +10561,16 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10606,7 +10620,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10624,27 +10638,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10667,16 +10681,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10726,7 +10740,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10744,27 +10758,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10787,19 +10801,19 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10848,7 +10862,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10860,7 +10874,7 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10869,10 +10883,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10883,10 +10897,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11001,10 +11015,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11121,14 +11135,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11150,10 +11164,10 @@
         <v>140</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>143</v>
@@ -11208,7 +11222,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11243,10 +11257,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11269,13 +11283,13 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11326,7 +11340,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11335,7 +11349,7 @@
         <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>106</v>
@@ -11347,10 +11361,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11361,10 +11375,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11387,13 +11401,13 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11444,7 +11458,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11453,7 +11467,7 @@
         <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>106</v>
@@ -11465,10 +11479,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11479,10 +11493,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11508,16 +11522,16 @@
         <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11545,10 +11559,10 @@
         <v>118</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11566,7 +11580,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11584,13 +11598,13 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11601,10 +11615,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11630,16 +11644,16 @@
         <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11667,10 +11681,10 @@
         <v>207</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11688,7 +11702,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11706,13 +11720,13 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11723,10 +11737,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11749,17 +11763,17 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11808,7 +11822,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11832,7 +11846,7 @@
         <v>83</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11843,10 +11857,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11872,10 +11886,10 @@
         <v>217</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11926,7 +11940,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11947,10 +11961,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11961,10 +11975,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11987,16 +12001,16 @@
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12046,7 +12060,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12067,10 +12081,10 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12081,10 +12095,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12107,16 +12121,16 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12166,7 +12180,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12187,10 +12201,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12201,10 +12215,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12227,19 +12241,19 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12288,7 +12302,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12309,10 +12323,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12323,10 +12337,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12441,10 +12455,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12561,14 +12575,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12590,10 +12604,10 @@
         <v>140</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>143</v>
@@ -12648,7 +12662,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12683,10 +12697,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12712,13 +12726,13 @@
         <v>192</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>206</v>
@@ -12770,7 +12784,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>94</v>
@@ -12788,7 +12802,7 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>212</v>
@@ -12805,10 +12819,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12831,19 +12845,19 @@
         <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12892,7 +12906,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12910,27 +12924,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12956,16 +12970,16 @@
         <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -12993,10 +13007,10 @@
         <v>320</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13014,7 +13028,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13023,7 +13037,7 @@
         <v>94</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>106</v>
@@ -13038,7 +13052,7 @@
         <v>137</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13049,14 +13063,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13078,16 +13092,16 @@
         <v>192</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13115,10 +13129,10 @@
         <v>320</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13136,7 +13150,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13154,27 +13168,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13200,16 +13214,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13258,7 +13272,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13279,10 +13293,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:58:39+00:00</t>
+    <t>2025-06-20T11:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:10:44+00:00</t>
+    <t>2025-06-20T11:56:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10188,7 +10188,7 @@
         <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:56:46+00:00</t>
+    <t>2025-06-20T12:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1548,7 +1548,7 @@
     <t>Comments about the observation or the results.</t>
   </si>
   <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+    <t>Utfyllende informasjon om konteksten for vurderingen</t>
   </si>
   <si>
     <t>Need to be able to provide free text additional information.</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Vkp VitalSigns Observation - CFS score</t>
+    <t>Vkp Observation - CFS score</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:34:45+00:00</t>
+    <t>2025-06-20T12:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="677">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:45:24+00:00</t>
+    <t>2025-06-20T15:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -937,6 +937,9 @@
     <t>Observation.code.coding:SCT.code</t>
   </si>
   <si>
+    <t>763264000</t>
+  </si>
+  <si>
     <t>Observation.code.coding:SCT.display</t>
   </si>
   <si>
@@ -971,36 +974,6 @@
   </si>
   <si>
     <t>Observation.code.coding:NPU/NLK.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode</t>
-  </si>
-  <si>
-    <t>CFSscoreSCTCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.code</t>
-  </si>
-  <si>
-    <t>763264000</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:CFSscoreSCTCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -2493,7 +2466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP131"/>
+  <dimension ref="A1:AP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2502,9 +2475,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.1171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.23046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -6457,7 +6430,7 @@
         <v>83</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>83</v>
@@ -6531,7 +6504,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>272</v>
@@ -6651,7 +6624,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>280</v>
@@ -6773,13 +6746,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>83</v>
@@ -6897,7 +6870,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>242</v>
@@ -7015,7 +6988,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>244</v>
@@ -7135,7 +7108,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>246</v>
@@ -7180,7 +7153,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>83</v>
@@ -7257,7 +7230,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>256</v>
@@ -7377,7 +7350,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>264</v>
@@ -7497,7 +7470,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>272</v>
@@ -7617,7 +7590,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>280</v>
@@ -7739,14 +7712,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C44" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7755,10 +7726,10 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
@@ -7767,19 +7738,19 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7828,13 +7799,13 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
@@ -7849,10 +7820,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7863,10 +7834,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7874,31 +7845,35 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7946,7 +7921,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7958,22 +7933,22 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7981,21 +7956,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -8007,17 +7982,15 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -8054,31 +8027,31 @@
         <v>83</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -8101,21 +8074,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -8124,23 +8097,21 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -8149,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>83</v>
@@ -8176,31 +8147,31 @@
         <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -8209,10 +8180,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8223,10 +8194,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8252,13 +8223,13 @@
         <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8308,7 +8279,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8317,7 +8288,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -8329,10 +8300,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8343,10 +8314,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8369,18 +8340,18 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -8389,7 +8360,7 @@
         <v>83</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>83</v>
@@ -8404,13 +8375,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8428,7 +8399,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8449,10 +8420,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8463,10 +8434,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8480,7 +8451,7 @@
         <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
@@ -8489,18 +8460,18 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8548,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8569,10 +8540,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8583,10 +8554,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8606,23 +8577,19 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8670,7 +8637,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8682,7 +8649,7 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8691,10 +8658,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8705,21 +8672,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8728,23 +8695,21 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8780,31 +8745,31 @@
         <v>83</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8813,10 +8778,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8827,10 +8792,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8838,34 +8803,34 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>114</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8890,13 +8855,13 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8914,7 +8879,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8929,19 +8894,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8949,10 +8914,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8972,19 +8937,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -9008,13 +8977,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -9032,7 +9001,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9044,7 +9013,7 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -9053,10 +9022,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -9067,44 +9036,46 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -9116,7 +9087,7 @@
         <v>83</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>83</v>
@@ -9128,43 +9099,41 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
@@ -9173,10 +9142,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9187,10 +9156,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9204,7 +9173,7 @@
         <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>83</v>
@@ -9216,13 +9185,13 @@
         <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9236,7 +9205,7 @@
         <v>83</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>83</v>
@@ -9272,7 +9241,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9281,7 +9250,7 @@
         <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>106</v>
@@ -9293,10 +9262,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9307,10 +9276,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9333,17 +9302,15 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9368,13 +9335,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9392,7 +9359,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9413,10 +9380,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -9427,10 +9394,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9444,7 +9411,7 @@
         <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
@@ -9453,16 +9420,16 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9512,7 +9479,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9533,10 +9500,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9547,10 +9514,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9564,24 +9531,26 @@
         <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9630,7 +9599,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9642,7 +9611,7 @@
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9654,7 +9623,7 @@
         <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9665,14 +9634,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9688,19 +9657,19 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>140</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9738,19 +9707,19 @@
         <v>83</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>227</v>
+        <v>408</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9762,7 +9731,7 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9771,13 +9740,13 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9785,14 +9754,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9805,25 +9774,25 @@
         <v>83</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9848,13 +9817,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9872,7 +9841,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9887,19 +9856,19 @@
         <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9907,14 +9876,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9933,19 +9902,19 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9970,13 +9939,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9994,7 +9963,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10009,19 +9978,19 @@
         <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -10029,10 +9998,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10046,7 +10015,7 @@
         <v>94</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>83</v>
@@ -10055,20 +10024,18 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -10080,7 +10047,7 @@
         <v>83</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>83</v>
@@ -10092,11 +10059,13 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -10114,7 +10083,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10135,13 +10104,13 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -10149,10 +10118,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10163,10 +10132,10 @@
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>83</v>
@@ -10175,18 +10144,18 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -10198,7 +10167,7 @@
         <v>83</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>83</v>
@@ -10222,25 +10191,23 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
@@ -10249,19 +10216,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10269,12 +10236,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10283,10 +10252,10 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>83</v>
@@ -10295,16 +10264,18 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10352,13 +10323,13 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
@@ -10367,19 +10338,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10387,10 +10358,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10410,20 +10381,18 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10472,7 +10441,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10484,7 +10453,7 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -10493,10 +10462,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>411</v>
+        <v>221</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10507,42 +10476,42 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
+        <v>223</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10580,31 +10549,31 @@
         <v>83</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>83</v>
@@ -10616,7 +10585,7 @@
         <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10627,10 +10596,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10641,7 +10610,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>83</v>
@@ -10653,16 +10622,16 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10712,16 +10681,16 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10733,13 +10702,13 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10747,14 +10716,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10764,7 +10733,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
@@ -10773,20 +10742,18 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10810,13 +10777,11 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10834,7 +10799,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10849,19 +10814,19 @@
         <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10869,14 +10834,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10886,7 +10851,7 @@
         <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>83</v>
@@ -10895,20 +10860,18 @@
         <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>436</v>
+        <v>152</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10956,7 +10919,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10971,19 +10934,19 @@
         <v>106</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>83</v>
@@ -10991,10 +10954,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11014,20 +10977,18 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>446</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -11076,7 +11037,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11088,7 +11049,7 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -11097,13 +11058,13 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -11111,14 +11072,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11134,21 +11095,21 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>454</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>455</v>
+        <v>141</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11184,9 +11145,11 @@
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11194,7 +11157,7 @@
         <v>226</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>453</v>
+        <v>227</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11206,22 +11169,22 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>83</v>
@@ -11229,14 +11192,12 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11245,29 +11206,31 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>465</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11292,13 +11255,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11316,13 +11279,13 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
@@ -11331,19 +11294,19 @@
         <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>83</v>
@@ -11351,10 +11314,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11374,19 +11337,23 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11410,13 +11377,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11434,7 +11401,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11446,7 +11413,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11455,10 +11422,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11469,44 +11436,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11518,7 +11487,7 @@
         <v>83</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>83</v>
@@ -11530,43 +11499,41 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11575,10 +11542,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11589,10 +11556,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11606,7 +11573,7 @@
         <v>94</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>83</v>
@@ -11618,13 +11585,13 @@
         <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11638,7 +11605,7 @@
         <v>83</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>83</v>
@@ -11674,7 +11641,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11683,7 +11650,7 @@
         <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>106</v>
@@ -11695,10 +11662,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11709,10 +11676,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11726,7 +11693,7 @@
         <v>94</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>83</v>
@@ -11735,17 +11702,15 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11770,11 +11735,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11792,7 +11759,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11813,10 +11780,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11827,10 +11794,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11844,7 +11811,7 @@
         <v>94</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>83</v>
@@ -11853,16 +11820,16 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11912,7 +11879,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11933,10 +11900,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11947,10 +11914,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11964,24 +11931,26 @@
         <v>94</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12030,7 +11999,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -12042,7 +12011,7 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -12054,7 +12023,7 @@
         <v>83</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -12065,14 +12034,16 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D80" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12082,27 +12053,27 @@
         <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>140</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -12138,19 +12109,19 @@
         <v>83</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12162,22 +12133,22 @@
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>221</v>
+        <v>452</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12185,10 +12156,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12205,26 +12176,22 @@
         <v>83</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12248,13 +12215,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12272,7 +12239,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12284,7 +12251,7 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
@@ -12293,10 +12260,10 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12307,21 +12274,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
@@ -12330,23 +12297,21 @@
         <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>372</v>
+        <v>223</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12370,43 +12335,43 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12415,10 +12380,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12429,10 +12394,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12446,7 +12411,7 @@
         <v>94</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>83</v>
@@ -12455,20 +12420,18 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12480,7 +12443,7 @@
         <v>83</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>83</v>
@@ -12492,11 +12455,13 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -12514,7 +12479,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12523,7 +12488,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12535,10 +12500,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12549,10 +12514,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12566,7 +12531,7 @@
         <v>94</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>83</v>
@@ -12575,16 +12540,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12598,7 +12563,7 @@
         <v>83</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>83</v>
@@ -12610,13 +12575,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12634,7 +12599,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12655,10 +12620,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12669,10 +12634,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12686,7 +12651,7 @@
         <v>94</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>83</v>
@@ -12695,15 +12660,17 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>398</v>
+        <v>152</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12752,7 +12719,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12773,10 +12740,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12787,10 +12754,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12810,20 +12777,18 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12872,7 +12837,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12884,7 +12849,7 @@
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
@@ -12893,10 +12858,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>411</v>
+        <v>221</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12907,42 +12872,42 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>414</v>
+        <v>223</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12980,31 +12945,31 @@
         <v>83</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
@@ -13016,7 +12981,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -13027,14 +12992,12 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>83</v>
       </c>
@@ -13043,29 +13006,31 @@
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>500</v>
+        <v>114</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13090,13 +13055,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13114,13 +13079,13 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
@@ -13129,19 +13094,19 @@
         <v>106</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>83</v>
@@ -13149,10 +13114,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13172,19 +13137,23 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -13208,13 +13177,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13232,7 +13201,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13244,7 +13213,7 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>83</v>
@@ -13253,10 +13222,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13267,44 +13236,46 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13316,7 +13287,7 @@
         <v>83</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>83</v>
@@ -13340,31 +13311,31 @@
         <v>83</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>83</v>
@@ -13373,10 +13344,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13387,10 +13358,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13404,7 +13375,7 @@
         <v>94</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>83</v>
@@ -13416,13 +13387,13 @@
         <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13436,7 +13407,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13472,7 +13443,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13481,7 +13452,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13493,10 +13464,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13507,10 +13478,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13533,17 +13504,15 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13568,13 +13537,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13592,7 +13561,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13613,10 +13582,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13627,10 +13596,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13644,7 +13613,7 @@
         <v>94</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>83</v>
@@ -13653,16 +13622,16 @@
         <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13712,7 +13681,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13733,10 +13702,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13747,10 +13716,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13764,24 +13733,26 @@
         <v>94</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -13830,7 +13801,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13842,7 +13813,7 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
@@ -13854,7 +13825,7 @@
         <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13865,21 +13836,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
@@ -13888,21 +13859,23 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
       </c>
@@ -13938,57 +13911,57 @@
         <v>83</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>227</v>
+        <v>507</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>83</v>
+        <v>513</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>221</v>
+        <v>516</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14005,25 +13978,25 @@
         <v>83</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>362</v>
+        <v>519</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>363</v>
+        <v>520</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>364</v>
+        <v>521</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14048,13 +14021,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>367</v>
+        <v>524</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14072,7 +14045,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>368</v>
+        <v>518</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14081,7 +14054,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14096,7 +14069,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>369</v>
+        <v>526</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14107,21 +14080,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -14130,22 +14103,22 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>373</v>
+        <v>531</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>374</v>
+        <v>532</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14170,13 +14143,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14194,13 +14167,13 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>377</v>
+        <v>527</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>83</v>
@@ -14212,27 +14185,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>369</v>
+        <v>537</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>83</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14243,7 +14216,7 @@
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>95</v>
@@ -14252,22 +14225,22 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>381</v>
+        <v>542</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>382</v>
+        <v>543</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14280,7 +14253,7 @@
         <v>83</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>83</v>
@@ -14316,13 +14289,13 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>386</v>
+        <v>539</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>83</v>
@@ -14337,10 +14310,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>387</v>
+        <v>545</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14351,10 +14324,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14368,25 +14341,25 @@
         <v>94</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>390</v>
+        <v>548</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>391</v>
+        <v>549</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14400,7 +14373,7 @@
         <v>83</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>83</v>
@@ -14412,13 +14385,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>83</v>
+        <v>551</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14436,7 +14409,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>394</v>
+        <v>547</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14454,27 +14427,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>553</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>395</v>
+        <v>554</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>396</v>
+        <v>555</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>83</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14494,19 +14467,23 @@
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>398</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14530,13 +14507,13 @@
         <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14554,7 +14531,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>401</v>
+        <v>557</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14575,10 +14552,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>402</v>
+        <v>564</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>403</v>
+        <v>565</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14589,10 +14566,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14612,19 +14589,19 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>405</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>408</v>
+        <v>570</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14674,7 +14651,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>409</v>
+        <v>566</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14692,27 +14669,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>83</v>
+        <v>571</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>410</v>
+        <v>572</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>411</v>
+        <v>573</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>83</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14726,25 +14703,25 @@
         <v>94</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>217</v>
+        <v>576</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>413</v>
+        <v>577</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>414</v>
+        <v>578</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>415</v>
+        <v>579</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14794,7 +14771,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14812,27 +14789,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>83</v>
+        <v>580</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>83</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14843,7 +14820,7 @@
         <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>83</v>
@@ -14852,22 +14829,22 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14916,45 +14893,45 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>522</v>
+        <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>106</v>
+        <v>590</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>523</v>
+        <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14977,20 +14954,16 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>528</v>
+        <v>218</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -15014,13 +14987,13 @@
         <v>83</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>532</v>
+        <v>83</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>533</v>
+        <v>83</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>83</v>
@@ -15038,7 +15011,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>527</v>
+        <v>220</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -15047,10 +15020,10 @@
         <v>94</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
@@ -15059,10 +15032,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>535</v>
+        <v>221</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -15073,14 +15046,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>537</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15099,20 +15072,18 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>538</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>83</v>
       </c>
@@ -15136,13 +15107,13 @@
         <v>83</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>542</v>
+        <v>83</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>543</v>
+        <v>83</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>83</v>
@@ -15160,7 +15131,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>536</v>
+        <v>227</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -15172,37 +15143,37 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>545</v>
+        <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>546</v>
+        <v>221</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>547</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>83</v>
+        <v>596</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15212,28 +15183,28 @@
         <v>82</v>
       </c>
       <c r="H106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="I106" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J106" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>549</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>552</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>553</v>
+        <v>149</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>83</v>
@@ -15282,7 +15253,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15294,7 +15265,7 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>83</v>
@@ -15303,10 +15274,10 @@
         <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>554</v>
+        <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>555</v>
+        <v>137</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15317,10 +15288,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15343,17 +15314,15 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>192</v>
+        <v>601</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15378,13 +15347,13 @@
         <v>83</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>561</v>
+        <v>83</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>83</v>
@@ -15402,7 +15371,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15411,7 +15380,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15420,27 +15389,27 @@
         <v>83</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>562</v>
+        <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>565</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15463,20 +15432,16 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>192</v>
+        <v>601</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>83</v>
       </c>
@@ -15500,13 +15465,13 @@
         <v>83</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>572</v>
+        <v>83</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
@@ -15524,7 +15489,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15533,7 +15498,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15545,10 +15510,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15559,10 +15524,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15585,18 +15550,20 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>576</v>
+        <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
       </c>
@@ -15620,13 +15587,13 @@
         <v>83</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>83</v>
+        <v>616</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>83</v>
+        <v>617</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15644,7 +15611,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15662,27 +15629,27 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15693,7 +15660,7 @@
         <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>83</v>
@@ -15705,18 +15672,20 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>585</v>
+        <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
@@ -15740,13 +15709,13 @@
         <v>83</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>83</v>
+        <v>625</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>83</v>
+        <v>626</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15764,13 +15733,13 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>83</v>
@@ -15782,27 +15751,27 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>592</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15813,7 +15782,7 @@
         <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>83</v>
@@ -15825,19 +15794,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15886,19 +15853,19 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>599</v>
+        <v>106</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>83</v>
@@ -15907,10 +15874,10 @@
         <v>83</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>600</v>
+        <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15921,10 +15888,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15950,10 +15917,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>218</v>
+        <v>634</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>219</v>
+        <v>635</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16004,7 +15971,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>220</v>
+        <v>633</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16016,7 +15983,7 @@
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>83</v>
@@ -16025,10 +15992,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>83</v>
+        <v>605</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>221</v>
+        <v>636</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16039,14 +16006,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16062,19 +16029,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>140</v>
+        <v>638</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>141</v>
+        <v>639</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>223</v>
+        <v>640</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>143</v>
+        <v>641</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16124,7 +16091,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>227</v>
+        <v>637</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16136,7 +16103,7 @@
         <v>83</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>83</v>
@@ -16145,10 +16112,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>221</v>
+        <v>643</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16159,14 +16126,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>605</v>
+        <v>83</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16179,26 +16146,24 @@
         <v>83</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>140</v>
+        <v>645</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>83</v>
       </c>
@@ -16246,7 +16211,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16258,7 +16223,7 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>83</v>
@@ -16267,10 +16232,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>137</v>
+        <v>649</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16281,10 +16246,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16295,7 +16260,7 @@
         <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>83</v>
@@ -16304,19 +16269,23 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
       </c>
@@ -16364,16 +16333,16 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>106</v>
@@ -16385,10 +16354,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>614</v>
+        <v>655</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16399,10 +16368,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16425,13 +16394,13 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>610</v>
+        <v>217</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>617</v>
+        <v>218</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>618</v>
+        <v>219</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16482,7 +16451,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>616</v>
+        <v>220</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16491,10 +16460,10 @@
         <v>94</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
@@ -16503,10 +16472,10 @@
         <v>83</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>614</v>
+        <v>83</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>619</v>
+        <v>221</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16517,21 +16486,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>83</v>
@@ -16543,20 +16512,18 @@
         <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>621</v>
+        <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>622</v>
+        <v>223</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>83</v>
       </c>
@@ -16580,13 +16547,13 @@
         <v>83</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>625</v>
+        <v>83</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>626</v>
+        <v>83</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>83</v>
@@ -16604,31 +16571,31 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>620</v>
+        <v>227</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>627</v>
+        <v>83</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>628</v>
+        <v>83</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>546</v>
+        <v>221</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
@@ -16639,14 +16606,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>83</v>
+        <v>596</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16659,25 +16626,25 @@
         <v>83</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>632</v>
+        <v>143</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>633</v>
+        <v>149</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16702,13 +16669,13 @@
         <v>83</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>634</v>
+        <v>83</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>635</v>
+        <v>83</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>83</v>
@@ -16726,7 +16693,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16738,19 +16705,19 @@
         <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>627</v>
+        <v>83</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>628</v>
+        <v>83</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>546</v>
+        <v>137</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -16761,10 +16728,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16772,7 +16739,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>94</v>
@@ -16784,20 +16751,22 @@
         <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>637</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O119" t="s" s="2">
-        <v>640</v>
+        <v>206</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16822,13 +16791,13 @@
         <v>83</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>83</v>
@@ -16846,10 +16815,10 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>94</v>
@@ -16864,16 +16833,16 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>83</v>
+        <v>664</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>641</v>
+        <v>213</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>83</v>
@@ -16881,10 +16850,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16904,19 +16873,23 @@
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>217</v>
+        <v>508</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
       </c>
@@ -16964,7 +16937,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16982,27 +16955,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>83</v>
+        <v>668</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>645</v>
+        <v>516</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17013,7 +16986,7 @@
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>83</v>
@@ -17022,21 +16995,23 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>647</v>
+        <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
       </c>
@@ -17060,13 +17035,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>83</v>
+        <v>524</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17084,16 +17059,16 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17105,10 +17080,10 @@
         <v>83</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>651</v>
+        <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>652</v>
+        <v>526</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17119,14 +17094,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17142,21 +17117,23 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>654</v>
+        <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>655</v>
+        <v>529</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>656</v>
+        <v>530</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17180,13 +17157,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>83</v>
+        <v>533</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17204,7 +17181,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17222,27 +17199,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>651</v>
+        <v>536</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>658</v>
+        <v>537</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>83</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17262,22 +17239,22 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>594</v>
+        <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17326,7 +17303,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17347,990 +17324,20 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>664</v>
+        <v>591</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP131" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP131">
+  <autoFilter ref="A1:AP123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18340,7 +17347,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T15:01:45+00:00</t>
+    <t>2025-06-20T16:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1487,12 +1487,6 @@
     <t>Observation.performer.type</t>
   </si>
   <si>
-    <t>The type of author if the CFS score (usually a Practitioner, Patient or RelatedPerson)</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-reference-types.valueset</t>
-  </si>
-  <si>
     <t>Observation.performer:author.identifier</t>
   </si>
   <si>
@@ -1566,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the organization responsible for the information</t>
+    <t>Reference to the organization responsible for the information (opprinnelig dataansvarlig virksomhet)</t>
   </si>
   <si>
     <t>Observation.performer:organization.id</t>
@@ -2500,7 +2494,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.05859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
@@ -4703,7 +4697,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>82</v>
@@ -5793,7 +5787,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -10733,7 +10727,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
@@ -10748,7 +10742,7 @@
         <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>339</v>
@@ -10777,11 +10771,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10834,10 +10830,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10954,10 +10950,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11072,10 +11068,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11192,10 +11188,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11314,10 +11310,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11436,10 +11432,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11503,7 +11499,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11556,10 +11552,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11676,10 +11672,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11794,10 +11790,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11914,10 +11910,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12034,13 +12030,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>444</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12062,13 +12058,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>446</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12156,7 +12152,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>459</v>
@@ -12274,7 +12270,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>461</v>
@@ -12394,7 +12390,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>463</v>
@@ -12514,7 +12510,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>465</v>
@@ -12634,10 +12630,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12754,10 +12750,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12872,10 +12868,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12992,10 +12988,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13114,10 +13110,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13236,10 +13232,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13358,10 +13354,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13478,10 +13474,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13596,10 +13592,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13716,10 +13712,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13836,10 +13832,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13862,19 +13858,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13923,7 +13919,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13932,7 +13928,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13941,27 +13937,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13987,16 +13983,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14024,37 +14020,37 @@
         <v>340</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14069,7 +14065,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14080,14 +14076,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14109,16 +14105,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14146,10 +14142,10 @@
         <v>340</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14167,7 +14163,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14185,27 +14181,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14228,19 +14224,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14289,7 +14285,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14310,10 +14306,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14324,10 +14320,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14353,13 +14349,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14388,10 +14384,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14409,7 +14405,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14427,27 +14423,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14473,16 +14469,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14510,10 +14506,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14531,7 +14527,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14552,10 +14548,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14566,10 +14562,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14592,16 +14588,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14651,7 +14647,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14669,27 +14665,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>574</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14712,16 +14708,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14771,7 +14767,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14789,27 +14785,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14832,19 +14828,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14893,7 +14889,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14905,19 +14901,19 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14928,10 +14924,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15046,10 +15042,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15166,14 +15162,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15195,10 +15191,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15253,7 +15249,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15288,10 +15284,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15314,13 +15310,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15371,7 +15367,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15380,7 +15376,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15392,10 +15388,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15406,10 +15402,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15432,13 +15428,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15489,7 +15485,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15498,7 +15494,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15510,10 +15506,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15524,10 +15520,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15553,16 +15549,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15590,10 +15586,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15611,7 +15607,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15629,13 +15625,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15646,10 +15642,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15675,16 +15671,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15712,10 +15708,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15733,7 +15729,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15751,13 +15747,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15768,10 +15764,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15794,17 +15790,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15853,7 +15849,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15877,7 +15873,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15888,10 +15884,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15917,10 +15913,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15971,7 +15967,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15992,10 +15988,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16006,10 +16002,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16032,16 +16028,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16091,7 +16087,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16112,10 +16108,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16126,10 +16122,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16152,16 +16148,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16211,7 +16207,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16232,10 +16228,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16246,10 +16242,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16272,19 +16268,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16333,7 +16329,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16354,10 +16350,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16368,10 +16364,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16486,10 +16482,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16606,14 +16602,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16635,10 +16631,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16693,7 +16689,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16728,10 +16724,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16757,13 +16753,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16815,7 +16811,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16833,7 +16829,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16850,10 +16846,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16876,19 +16872,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L120" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O120" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16937,7 +16933,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16955,27 +16951,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17001,16 +16997,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M121" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="O121" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17038,37 +17034,37 @@
         <v>340</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI121" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17083,7 +17079,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17094,14 +17090,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17123,16 +17119,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17160,10 +17156,10 @@
         <v>340</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17181,7 +17177,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17199,27 +17195,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AO122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17245,16 +17241,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17303,7 +17299,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17324,10 +17320,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:27:23+00:00</t>
+    <t>2025-06-20T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>SCT</t>
+  </si>
+  <si>
+    <t>Snomed CT term to identify CFS score observation</t>
   </si>
   <si>
     <t>Observation.code.coding:SCT.id</t>
@@ -1447,6 +1450,9 @@
 </t>
   </si>
   <si>
+    <t>Reference to the author of the observation</t>
+  </si>
+  <si>
     <t>Reference to the person, role or team that performed the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
 A link to a resource representing the person or the group to whom the medication will be given.
 VKP always references a Practitioner Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the practitioner.identifier element.
@@ -1560,6 +1566,9 @@
 </t>
   </si>
   <si>
+    <t>Reference to the responsible organization (dataansvarlig)</t>
+  </si>
+  <si>
     <t>Reference to the organization responsible for the information (opprinnelig dataansvarlig virksomhet)</t>
   </si>
   <si>
@@ -1719,7 +1728,7 @@
     <t>Comments about the observation or the results.</t>
   </si>
   <si>
-    <t>Utfyllende informasjon om konteksten for vurderingen</t>
+    <t>Additional details about the context of the observation in annotation text</t>
   </si>
   <si>
     <t>Need to be able to provide free text additional information.</t>
@@ -5805,7 +5814,7 @@
         <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>231</v>
@@ -5898,7 +5907,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>242</v>
@@ -6016,7 +6025,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>244</v>
@@ -6136,7 +6145,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>246</v>
@@ -6184,7 +6193,7 @@
         <v>83</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>83</v>
@@ -6258,7 +6267,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>256</v>
@@ -6378,7 +6387,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>264</v>
@@ -6424,7 +6433,7 @@
         <v>83</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>83</v>
@@ -6498,7 +6507,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>272</v>
@@ -6618,7 +6627,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>280</v>
@@ -6740,13 +6749,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>83</v>
@@ -6864,7 +6873,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>242</v>
@@ -6982,7 +6991,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>244</v>
@@ -7102,7 +7111,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>246</v>
@@ -7147,7 +7156,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>83</v>
@@ -7224,7 +7233,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>256</v>
@@ -7344,7 +7353,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>264</v>
@@ -7464,7 +7473,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>272</v>
@@ -7584,7 +7593,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>280</v>
@@ -7706,10 +7715,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7735,16 +7744,16 @@
         <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7793,7 +7802,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7814,10 +7823,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7828,10 +7837,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7854,19 +7863,19 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7915,7 +7924,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7930,19 +7939,19 @@
         <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7950,10 +7959,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8068,10 +8077,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8188,10 +8197,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8217,13 +8226,13 @@
         <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8273,7 +8282,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8282,7 +8291,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -8308,10 +8317,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8337,13 +8346,13 @@
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8369,13 +8378,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8393,7 +8402,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8428,10 +8437,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8457,13 +8466,13 @@
         <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8513,7 +8522,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8537,7 +8546,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8548,10 +8557,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8666,10 +8675,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8786,10 +8795,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8815,16 +8824,16 @@
         <v>114</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8852,10 +8861,10 @@
         <v>183</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8873,7 +8882,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8897,7 +8906,7 @@
         <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8908,10 +8917,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8937,16 +8946,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8971,13 +8980,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8995,7 +9004,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9016,10 +9025,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -9030,10 +9039,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9059,16 +9068,16 @@
         <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -9081,7 +9090,7 @@
         <v>83</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>83</v>
@@ -9097,7 +9106,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -9115,7 +9124,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9136,10 +9145,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9150,10 +9159,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9179,13 +9188,13 @@
         <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9199,7 +9208,7 @@
         <v>83</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>83</v>
@@ -9235,7 +9244,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9256,10 +9265,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9270,10 +9279,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9296,13 +9305,13 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9353,7 +9362,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9374,10 +9383,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -9388,10 +9397,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9414,16 +9423,16 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9473,7 +9482,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9494,10 +9503,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9508,10 +9517,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,13 +9546,13 @@
         <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9593,7 +9602,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9628,10 +9637,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9654,16 +9663,16 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9713,7 +9722,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9737,10 +9746,10 @@
         <v>212</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9748,14 +9757,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9774,19 +9783,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9835,7 +9844,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9850,19 +9859,19 @@
         <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9870,14 +9879,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9896,19 +9905,19 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9957,7 +9966,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9972,19 +9981,19 @@
         <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9992,10 +10001,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10018,16 +10027,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10077,7 +10086,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10098,13 +10107,13 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -10112,10 +10121,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10138,17 +10147,17 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -10185,7 +10194,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10195,7 +10204,7 @@
         <v>226</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10210,19 +10219,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10230,13 +10239,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10258,17 +10267,17 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10317,7 +10326,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10332,19 +10341,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10352,10 +10361,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10470,10 +10479,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10590,10 +10599,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10619,13 +10628,13 @@
         <v>217</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10675,7 +10684,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10684,7 +10693,7 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10710,10 +10719,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10739,13 +10748,13 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10771,13 +10780,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10795,7 +10804,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10830,10 +10839,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10859,13 +10868,13 @@
         <v>152</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10915,7 +10924,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10939,7 +10948,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10950,10 +10959,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11068,10 +11077,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11188,10 +11197,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11217,16 +11226,16 @@
         <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11254,10 +11263,10 @@
         <v>183</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11275,7 +11284,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11299,7 +11308,7 @@
         <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11310,10 +11319,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11339,16 +11348,16 @@
         <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11373,13 +11382,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11397,7 +11406,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11418,10 +11427,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11432,10 +11441,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11461,16 +11470,16 @@
         <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11483,7 +11492,7 @@
         <v>83</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>83</v>
@@ -11499,7 +11508,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11517,7 +11526,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11538,10 +11547,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11552,10 +11561,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11581,13 +11590,13 @@
         <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11601,7 +11610,7 @@
         <v>83</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>83</v>
@@ -11637,7 +11646,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11658,10 +11667,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11672,10 +11681,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11698,13 +11707,13 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11755,7 +11764,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11776,10 +11785,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11790,10 +11799,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11816,16 +11825,16 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11875,7 +11884,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11896,10 +11905,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11910,10 +11919,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11939,13 +11948,13 @@
         <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11995,7 +12004,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -12030,13 +12039,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12058,17 +12067,17 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12117,7 +12126,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12132,19 +12141,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12152,10 +12161,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12270,10 +12279,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12390,10 +12399,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12419,13 +12428,13 @@
         <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12475,7 +12484,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12484,7 +12493,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12510,10 +12519,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12539,13 +12548,13 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12571,13 +12580,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12595,7 +12604,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12630,10 +12639,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12659,13 +12668,13 @@
         <v>152</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12715,7 +12724,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12739,7 +12748,7 @@
         <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12750,10 +12759,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12868,10 +12877,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12988,10 +12997,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13017,16 +13026,16 @@
         <v>114</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13054,10 +13063,10 @@
         <v>183</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13075,7 +13084,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13099,7 +13108,7 @@
         <v>137</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13110,10 +13119,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13139,16 +13148,16 @@
         <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13173,13 +13182,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13197,7 +13206,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13218,10 +13227,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13232,10 +13241,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13261,16 +13270,16 @@
         <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13283,7 +13292,7 @@
         <v>83</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>83</v>
@@ -13319,7 +13328,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13340,10 +13349,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13354,10 +13363,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13383,13 +13392,13 @@
         <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13403,7 +13412,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13439,7 +13448,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13460,10 +13469,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13474,10 +13483,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13500,13 +13509,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13557,7 +13566,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13578,10 +13587,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13592,10 +13601,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13618,16 +13627,16 @@
         <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13677,7 +13686,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13698,10 +13707,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13712,10 +13721,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13741,13 +13750,13 @@
         <v>217</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13797,7 +13806,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13832,10 +13841,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13858,19 +13867,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13919,7 +13928,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13928,7 +13937,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13937,27 +13946,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13983,16 +13992,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14017,13 +14026,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14041,7 +14050,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14050,7 +14059,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14065,7 +14074,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14076,14 +14085,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14105,16 +14114,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14139,13 +14148,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14163,7 +14172,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14181,27 +14190,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14224,19 +14233,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14285,7 +14294,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14306,10 +14315,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14320,10 +14329,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14349,13 +14358,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14384,10 +14393,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14405,7 +14414,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14423,27 +14432,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14469,16 +14478,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14506,10 +14515,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14527,7 +14536,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14548,10 +14557,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14562,10 +14571,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14588,16 +14597,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14647,7 +14656,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14665,27 +14674,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14708,16 +14717,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14767,7 +14776,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14785,27 +14794,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14828,19 +14837,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14889,7 +14898,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14901,7 +14910,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14910,10 +14919,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14924,10 +14933,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15042,10 +15051,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15162,14 +15171,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15191,10 +15200,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15249,7 +15258,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15284,10 +15293,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15310,13 +15319,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15367,7 +15376,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15376,7 +15385,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15388,10 +15397,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15402,10 +15411,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15428,13 +15437,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15485,16 +15494,16 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15506,10 +15515,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15520,10 +15529,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15549,16 +15558,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15586,10 +15595,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15607,7 +15616,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15625,13 +15634,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15642,10 +15651,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15671,16 +15680,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15708,10 +15717,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15729,7 +15738,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15747,13 +15756,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15764,10 +15773,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15790,17 +15799,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15849,7 +15858,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15873,7 +15882,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15884,10 +15893,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15913,10 +15922,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15967,7 +15976,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15988,10 +15997,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16002,10 +16011,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16028,16 +16037,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16087,7 +16096,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16108,10 +16117,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16122,10 +16131,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16148,16 +16157,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16207,7 +16216,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16228,10 +16237,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16242,10 +16251,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16268,19 +16277,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16329,7 +16338,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16350,10 +16359,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16364,10 +16373,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16482,10 +16491,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16602,14 +16611,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16631,10 +16640,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16689,7 +16698,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16724,10 +16733,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16753,13 +16762,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16811,7 +16820,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16829,7 +16838,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16846,10 +16855,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16872,19 +16881,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16933,7 +16942,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16951,27 +16960,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16997,16 +17006,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17031,13 +17040,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17055,7 +17064,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17064,7 +17073,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17079,7 +17088,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17090,14 +17099,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17119,16 +17128,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17153,13 +17162,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17177,7 +17186,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17195,27 +17204,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17241,16 +17250,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17299,7 +17308,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17320,10 +17329,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:50:39+00:00</t>
+    <t>2025-06-20T16:59:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4836,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
@@ -6768,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:59:22+00:00</t>
+    <t>2025-06-20T17:02:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:02:13+00:00</t>
+    <t>2025-06-20T17:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:06:30+00:00</t>
+    <t>2025-06-20T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>Observation.performer:organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-organization-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer:organization.identifier.value</t>
@@ -2503,7 +2506,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
@@ -13304,13 +13307,11 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>83</v>
+        <v>504</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13363,7 +13364,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>482</v>
@@ -13483,7 +13484,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>484</v>
@@ -13601,7 +13602,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>486</v>
@@ -13721,7 +13722,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>488</v>
@@ -13841,10 +13842,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13867,19 +13868,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13928,7 +13929,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13937,7 +13938,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13946,27 +13947,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13992,16 +13993,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14029,10 +14030,10 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14050,7 +14051,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14059,7 +14060,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14074,7 +14075,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14085,14 +14086,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14114,16 +14115,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14151,10 +14152,10 @@
         <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14172,7 +14173,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14190,27 +14191,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14233,19 +14234,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14294,7 +14295,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14315,10 +14316,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14329,10 +14330,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14358,13 +14359,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14393,10 +14394,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14414,7 +14415,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14432,27 +14433,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14478,16 +14479,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14515,10 +14516,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14536,7 +14537,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14557,10 +14558,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14571,10 +14572,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14597,16 +14598,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14656,7 +14657,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14674,27 +14675,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14717,16 +14718,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14776,7 +14777,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14794,27 +14795,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14837,19 +14838,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14898,7 +14899,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14910,7 +14911,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14919,10 +14920,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14933,10 +14934,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15051,10 +15052,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15171,14 +15172,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15200,10 +15201,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15258,7 +15259,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15293,10 +15294,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15319,13 +15320,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15376,7 +15377,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15385,7 +15386,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15397,10 +15398,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15411,10 +15412,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15437,13 +15438,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15494,7 +15495,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15503,7 +15504,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15515,10 +15516,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15529,10 +15530,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15558,16 +15559,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15595,10 +15596,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15616,7 +15617,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15634,13 +15635,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15651,10 +15652,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15680,16 +15681,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15717,10 +15718,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15738,7 +15739,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15756,13 +15757,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15773,10 +15774,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15799,17 +15800,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15858,7 +15859,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15882,7 +15883,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15893,10 +15894,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15922,10 +15923,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15976,7 +15977,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15997,10 +15998,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16011,10 +16012,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16037,16 +16038,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16096,7 +16097,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16117,10 +16118,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16131,10 +16132,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16157,16 +16158,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16216,7 +16217,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16237,10 +16238,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16251,10 +16252,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16277,19 +16278,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16338,7 +16339,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16359,10 +16360,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16373,10 +16374,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16491,10 +16492,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16611,14 +16612,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16640,10 +16641,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16698,7 +16699,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16733,10 +16734,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16762,13 +16763,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16820,7 +16821,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16838,7 +16839,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16855,10 +16856,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16881,19 +16882,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16942,7 +16943,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16960,27 +16961,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17006,16 +17007,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17043,10 +17044,10 @@
         <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17064,7 +17065,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17073,7 +17074,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17088,7 +17089,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17099,14 +17100,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17128,16 +17129,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17165,10 +17166,10 @@
         <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17186,7 +17187,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17204,27 +17205,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17250,16 +17251,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17308,7 +17309,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17329,10 +17330,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:15:26+00:00</t>
+    <t>2025-06-20T17:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:20:15+00:00</t>
+    <t>2025-06-20T17:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1424,10 +1424,6 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:type}
-</t>
-  </si>
-  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1491,6 +1487,9 @@
   </si>
   <si>
     <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-reference-types.valueset</t>
   </si>
   <si>
     <t>Observation.performer:author.identifier</t>
@@ -10197,7 +10196,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10222,19 +10221,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10242,13 +10241,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10270,13 +10269,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10344,19 +10343,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10364,10 +10363,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10482,10 +10481,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10602,10 +10601,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10722,10 +10721,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10783,13 +10782,11 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -12144,19 +12141,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12167,7 +12164,7 @@
         <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12285,7 +12282,7 @@
         <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12405,7 +12402,7 @@
         <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12525,7 +12522,7 @@
         <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:28:06+00:00</t>
+    <t>2025-06-20T17:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1422,6 +1422,10 @@
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:identifier.system}
+</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -2507,7 +2511,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -10196,7 +10200,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10221,19 +10225,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10241,13 +10245,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10269,13 +10273,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10343,19 +10347,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10363,10 +10367,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10481,10 +10485,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10601,10 +10605,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10721,10 +10725,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10786,7 +10790,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10839,10 +10843,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10959,10 +10963,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11077,10 +11081,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11197,10 +11201,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11319,10 +11323,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11441,10 +11445,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11508,7 +11512,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11561,10 +11565,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11681,10 +11685,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11799,10 +11803,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11919,10 +11923,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12039,13 +12043,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12067,13 +12071,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12141,19 +12145,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12161,10 +12165,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12279,10 +12283,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12399,10 +12403,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12519,10 +12523,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12639,10 +12643,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12759,10 +12763,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12877,10 +12881,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12997,10 +13001,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13119,10 +13123,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13241,10 +13245,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13308,7 +13312,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13361,10 +13365,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13481,10 +13485,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13599,10 +13603,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13719,10 +13723,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13839,10 +13843,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13865,19 +13869,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13926,7 +13930,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13935,7 +13939,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13944,27 +13948,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13990,16 +13994,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14027,10 +14031,10 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14048,7 +14052,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14057,7 +14061,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14072,7 +14076,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14083,14 +14087,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14112,16 +14116,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14149,10 +14153,10 @@
         <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14170,7 +14174,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14188,27 +14192,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14231,19 +14235,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14292,7 +14296,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14313,10 +14317,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14327,10 +14331,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14356,13 +14360,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14391,10 +14395,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14412,7 +14416,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14430,27 +14434,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14476,16 +14480,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14513,10 +14517,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14534,7 +14538,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14555,10 +14559,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14569,10 +14573,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14595,16 +14599,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14654,7 +14658,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14672,27 +14676,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14715,16 +14719,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14774,7 +14778,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14792,27 +14796,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14835,19 +14839,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14896,7 +14900,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14908,7 +14912,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14917,10 +14921,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14931,10 +14935,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15049,10 +15053,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15169,14 +15173,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15198,10 +15202,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15256,7 +15260,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15291,10 +15295,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15317,13 +15321,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15374,7 +15378,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15383,7 +15387,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15395,10 +15399,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15409,10 +15413,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15435,13 +15439,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15492,7 +15496,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15501,7 +15505,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15513,10 +15517,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15527,10 +15531,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15556,16 +15560,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15593,10 +15597,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15614,7 +15618,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15632,13 +15636,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15649,10 +15653,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15678,16 +15682,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15715,10 +15719,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15736,7 +15740,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15754,13 +15758,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15771,10 +15775,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15797,17 +15801,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15856,7 +15860,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15880,7 +15884,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15891,10 +15895,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15920,10 +15924,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15974,7 +15978,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15995,10 +15999,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16009,10 +16013,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16035,16 +16039,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16094,7 +16098,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16115,10 +16119,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16129,10 +16133,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16155,16 +16159,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16214,7 +16218,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16235,10 +16239,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16249,10 +16253,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16275,19 +16279,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16336,7 +16340,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16357,10 +16361,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16371,10 +16375,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16489,10 +16493,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16609,14 +16613,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16638,10 +16642,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16696,7 +16700,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16731,10 +16735,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16760,13 +16764,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16818,7 +16822,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16836,7 +16840,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16853,10 +16857,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16879,19 +16883,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16940,7 +16944,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16958,27 +16962,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17004,16 +17008,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17041,10 +17045,10 @@
         <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17062,7 +17066,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17071,7 +17075,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17086,7 +17090,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17097,14 +17101,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17126,16 +17130,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17163,10 +17167,10 @@
         <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17184,7 +17188,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17202,27 +17206,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17248,16 +17252,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17306,7 +17310,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17327,10 +17331,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:36:29+00:00</t>
+    <t>2025-06-23T08:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10742,7 +10742,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$131</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="733">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T08:01:32+00:00</t>
+    <t>2025-10-30T12:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -668,7 +668,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1091,7 +1091,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1169,7 +1169,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1257,7 +1257,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1411,7 +1411,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1639,6 +1639,10 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-7
 </t>
   </si>
@@ -1655,6 +1659,165 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1674,7 +1837,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1706,7 +1869,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1762,7 +1925,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1795,7 +1958,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1807,7 +1970,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1835,7 +1998,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1915,7 +2078,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1965,7 +2128,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1998,7 +2161,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2035,7 +2198,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2057,7 +2220,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2475,7 +2638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP123"/>
+  <dimension ref="A1:AP131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2486,7 +2649,7 @@
   <cols>
     <col min="1" max="1" width="44.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -5787,7 +5950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>289</v>
       </c>
@@ -7841,7 +8004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>319</v>
       </c>
@@ -8441,7 +8604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>345</v>
       </c>
@@ -9043,7 +9206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>371</v>
       </c>
@@ -9163,7 +9326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>381</v>
       </c>
@@ -9521,7 +9684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>404</v>
       </c>
@@ -10243,7 +10406,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>455</v>
       </c>
@@ -10723,7 +10886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>466</v>
       </c>
@@ -10841,7 +11004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>469</v>
       </c>
@@ -11443,7 +11606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>479</v>
       </c>
@@ -11563,7 +11726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>482</v>
       </c>
@@ -11921,7 +12084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>488</v>
       </c>
@@ -12041,7 +12204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>490</v>
       </c>
@@ -12641,7 +12804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>499</v>
       </c>
@@ -13243,7 +13406,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>504</v>
       </c>
@@ -13363,7 +13526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>506</v>
       </c>
@@ -13721,7 +13884,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>509</v>
       </c>
@@ -13918,16 +14081,14 @@
         <v>83</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>510</v>
@@ -13939,7 +14100,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13948,29 +14109,31 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>83</v>
       </c>
@@ -13982,28 +14145,28 @@
         <v>94</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14028,13 +14191,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>527</v>
+        <v>83</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14052,7 +14215,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14061,7 +14224,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14070,38 +14233,38 @@
         <v>83</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>137</v>
+        <v>519</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>83</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -14113,20 +14276,16 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14150,13 +14309,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>536</v>
+        <v>83</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14174,49 +14333,49 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>539</v>
+        <v>83</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>540</v>
+        <v>221</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>541</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14226,7 +14385,7 @@
         <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>83</v>
@@ -14235,20 +14394,18 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>543</v>
+        <v>140</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>544</v>
+        <v>141</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>545</v>
+        <v>223</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
@@ -14284,19 +14441,19 @@
         <v>83</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>542</v>
+        <v>227</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14308,7 +14465,7 @@
         <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>83</v>
@@ -14317,10 +14474,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>549</v>
+        <v>221</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14329,12 +14486,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14348,27 +14505,29 @@
         <v>94</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14392,13 +14551,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>554</v>
+        <v>83</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>555</v>
+        <v>83</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14416,7 +14575,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14434,27 +14593,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14471,30 +14630,30 @@
         <v>83</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="R100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14514,13 +14673,13 @@
         <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14538,7 +14697,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14559,10 +14718,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14573,10 +14732,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14596,21 +14755,21 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>570</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
       </c>
@@ -14658,7 +14817,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14676,27 +14835,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>574</v>
+        <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>577</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14716,21 +14875,21 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>579</v>
+        <v>108</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
       </c>
@@ -14778,7 +14937,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14787,7 +14946,7 @@
         <v>94</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>83</v>
+        <v>564</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>106</v>
@@ -14796,27 +14955,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>586</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14827,7 +14986,7 @@
         <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>83</v>
@@ -14836,22 +14995,22 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>588</v>
+        <v>114</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14900,19 +15059,19 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>593</v>
+        <v>106</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14921,10 +15080,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14935,10 +15094,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14961,16 +15120,20 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>218</v>
+        <v>575</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -14994,13 +15157,13 @@
         <v>83</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>83</v>
+        <v>579</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>83</v>
+        <v>580</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>83</v>
@@ -15018,7 +15181,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>220</v>
+        <v>574</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -15027,10 +15190,10 @@
         <v>94</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
@@ -15039,10 +15202,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -15053,14 +15216,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>139</v>
+        <v>584</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15079,18 +15242,20 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>141</v>
+        <v>585</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>223</v>
+        <v>586</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>83</v>
       </c>
@@ -15114,13 +15279,13 @@
         <v>83</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>83</v>
+        <v>589</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>83</v>
+        <v>590</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>83</v>
@@ -15138,7 +15303,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>227</v>
+        <v>583</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -15150,37 +15315,37 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>83</v>
+        <v>591</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>221</v>
+        <v>593</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>83</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>599</v>
+        <v>83</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15190,28 +15355,28 @@
         <v>82</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>140</v>
+        <v>596</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O106" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>83</v>
@@ -15260,7 +15425,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15272,7 +15437,7 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>83</v>
@@ -15281,10 +15446,10 @@
         <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>83</v>
+        <v>601</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>137</v>
+        <v>602</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15321,15 +15486,17 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15354,13 +15521,13 @@
         <v>83</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>83</v>
+        <v>608</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>83</v>
@@ -15387,7 +15554,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15396,27 +15563,27 @@
         <v>83</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>83</v>
+        <v>609</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>83</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15439,16 +15606,20 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>604</v>
+        <v>192</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>83</v>
       </c>
@@ -15472,13 +15643,13 @@
         <v>83</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>83</v>
+        <v>618</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>83</v>
+        <v>619</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
@@ -15496,7 +15667,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15505,7 +15676,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15517,10 +15688,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15531,10 +15702,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15557,20 +15728,18 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>192</v>
+        <v>623</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>83</v>
       </c>
@@ -15594,13 +15763,13 @@
         <v>83</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>619</v>
+        <v>83</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>620</v>
+        <v>83</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15618,7 +15787,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15636,27 +15805,27 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>83</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15667,7 +15836,7 @@
         <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>83</v>
@@ -15679,20 +15848,18 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>192</v>
+        <v>632</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
@@ -15716,13 +15883,13 @@
         <v>83</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>628</v>
+        <v>83</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>629</v>
+        <v>83</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15740,13 +15907,13 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>83</v>
@@ -15758,27 +15925,27 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>83</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15789,7 +15956,7 @@
         <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>83</v>
@@ -15801,17 +15968,19 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O111" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15860,19 +16029,19 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>106</v>
+        <v>646</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>83</v>
@@ -15881,10 +16050,10 @@
         <v>83</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>83</v>
+        <v>647</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15895,10 +16064,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15924,10 +16093,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>637</v>
+        <v>218</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>638</v>
+        <v>219</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15978,7 +16147,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>636</v>
+        <v>220</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15990,7 +16159,7 @@
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>83</v>
@@ -15999,10 +16168,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>608</v>
+        <v>83</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>639</v>
+        <v>221</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16013,14 +16182,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16036,19 +16205,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>641</v>
+        <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>642</v>
+        <v>141</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>643</v>
+        <v>223</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>644</v>
+        <v>143</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16098,7 +16267,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>640</v>
+        <v>227</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16110,7 +16279,7 @@
         <v>83</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>83</v>
@@ -16119,10 +16288,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>645</v>
+        <v>83</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>646</v>
+        <v>221</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16133,14 +16302,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>83</v>
+        <v>652</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16153,24 +16322,26 @@
         <v>83</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>648</v>
+        <v>140</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
       </c>
@@ -16218,7 +16389,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16230,7 +16401,7 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>83</v>
@@ -16239,10 +16410,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>645</v>
+        <v>83</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>652</v>
+        <v>137</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16253,10 +16424,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16267,7 +16438,7 @@
         <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>83</v>
@@ -16276,23 +16447,19 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>83</v>
       </c>
@@ -16340,16 +16507,16 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>83</v>
+        <v>660</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>106</v>
@@ -16361,10 +16528,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16375,10 +16542,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16401,13 +16568,13 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>218</v>
+        <v>664</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>219</v>
+        <v>665</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16458,7 +16625,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>220</v>
+        <v>663</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16467,10 +16634,10 @@
         <v>94</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>83</v>
+        <v>660</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
@@ -16479,10 +16646,10 @@
         <v>83</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>83</v>
+        <v>661</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>221</v>
+        <v>666</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16493,21 +16660,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>83</v>
@@ -16519,18 +16686,20 @@
         <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>141</v>
+        <v>668</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>223</v>
+        <v>669</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
       </c>
@@ -16554,13 +16723,13 @@
         <v>83</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>83</v>
+        <v>673</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>83</v>
@@ -16578,31 +16747,31 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>227</v>
+        <v>667</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>83</v>
+        <v>674</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>83</v>
+        <v>675</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>221</v>
+        <v>593</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
@@ -16613,14 +16782,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>599</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16633,25 +16802,25 @@
         <v>83</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>143</v>
+        <v>679</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>149</v>
+        <v>680</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16676,13 +16845,13 @@
         <v>83</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>83</v>
+        <v>681</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>83</v>
+        <v>682</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>83</v>
@@ -16700,7 +16869,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16712,19 +16881,19 @@
         <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>83</v>
+        <v>674</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>83</v>
+        <v>675</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>137</v>
+        <v>593</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -16735,10 +16904,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16746,7 +16915,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>94</v>
@@ -16758,22 +16927,20 @@
         <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>192</v>
+        <v>684</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>206</v>
+        <v>687</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16798,13 +16965,13 @@
         <v>83</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>83</v>
@@ -16822,10 +16989,10 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>94</v>
@@ -16840,16 +17007,16 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>667</v>
+        <v>83</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>213</v>
+        <v>688</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>83</v>
@@ -16857,10 +17024,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16880,23 +17047,19 @@
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>83</v>
       </c>
@@ -16944,7 +17107,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16962,27 +17125,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>519</v>
+        <v>692</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16993,7 +17156,7 @@
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>83</v>
@@ -17002,23 +17165,21 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>192</v>
+        <v>694</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>83</v>
       </c>
@@ -17042,13 +17203,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>527</v>
+        <v>83</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17066,16 +17227,16 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>528</v>
+        <v>83</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17087,10 +17248,10 @@
         <v>83</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>137</v>
+        <v>698</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>529</v>
+        <v>699</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17101,14 +17262,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17124,23 +17285,21 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>192</v>
+        <v>701</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>532</v>
+        <v>702</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>533</v>
+        <v>703</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17164,13 +17323,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>536</v>
+        <v>83</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17188,7 +17347,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17206,27 +17365,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>539</v>
+        <v>698</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>540</v>
+        <v>705</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>541</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17246,22 +17405,22 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>591</v>
+        <v>709</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>592</v>
+        <v>710</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17310,7 +17469,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17331,30 +17490,1000 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP126" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP127" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP128" t="s" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP129" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP130" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AN123" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP123" t="s" s="2">
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP131" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP123">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AP131">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI122">
+  <conditionalFormatting sqref="A2:AI130">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T12:10:10+00:00</t>
+    <t>2025-10-30T21:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T21:18:07+00:00</t>
+    <t>2025-10-31T07:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T07:41:35+00:00</t>
+    <t>2025-10-31T08:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-CFSscore.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T08:30:38+00:00</t>
+    <t>2025-11-05T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
